--- a/Section.5.1/Agnostic_SnomedJan17_ELK/regression/DataExecution.xlsx
+++ b/Section.5.1/Agnostic_SnomedJan17_ELK/regression/DataExecution.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r01ig15\Google Drive\UoA\ISWC2017\03Codes\RScript\20170515 Predicting AxiomCount from RAM (ELK) (degree 3) - MB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="25620" windowHeight="17565" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3sp" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="LogRunning" localSheetId="1">'2sp'!$A$2:$D$86</definedName>
     <definedName name="LogRunning" localSheetId="0">'3sp'!$A$2:$D$85</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="443">
   <si>
     <t>14268 KB.</t>
   </si>
@@ -1394,6 +1399,9 @@
   </si>
   <si>
     <t xml:space="preserve">714351 msec. </t>
+  </si>
+  <si>
+    <t>RAM_MB</t>
   </si>
 </sst>
 </file>
@@ -1470,12 +1478,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1494,6 +1505,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1837,14 +1856,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1855,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -1866,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -1877,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
@@ -1888,7 +1907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4000</v>
       </c>
@@ -1899,7 +1918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5000</v>
       </c>
@@ -1910,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6000</v>
       </c>
@@ -1921,7 +1940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9000</v>
       </c>
@@ -1954,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10000</v>
       </c>
@@ -1965,7 +1984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>15000</v>
       </c>
@@ -1976,7 +1995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20000</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25000</v>
       </c>
@@ -1998,7 +2017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30000</v>
       </c>
@@ -2009,7 +2028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35000</v>
       </c>
@@ -2020,7 +2039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40000</v>
       </c>
@@ -2031,7 +2050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45000</v>
       </c>
@@ -2042,7 +2061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>50000</v>
       </c>
@@ -2053,7 +2072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55000</v>
       </c>
@@ -2064,7 +2083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>60000</v>
       </c>
@@ -2075,7 +2094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>65000</v>
       </c>
@@ -2086,7 +2105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>70000</v>
       </c>
@@ -2097,7 +2116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>75000</v>
       </c>
@@ -2108,7 +2127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>80000</v>
       </c>
@@ -2119,7 +2138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>85000</v>
       </c>
@@ -2130,7 +2149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>90000</v>
       </c>
@@ -2141,7 +2160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>95000</v>
       </c>
@@ -2152,7 +2171,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>100000</v>
       </c>
@@ -2163,7 +2182,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>105000</v>
       </c>
@@ -2174,7 +2193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>110000</v>
       </c>
@@ -2185,7 +2204,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>115000</v>
       </c>
@@ -2196,7 +2215,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>120000</v>
       </c>
@@ -2207,7 +2226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>125000</v>
       </c>
@@ -2218,7 +2237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>130000</v>
       </c>
@@ -2229,7 +2248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>135000</v>
       </c>
@@ -2240,7 +2259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>140000</v>
       </c>
@@ -2251,7 +2270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>145000</v>
       </c>
@@ -2262,7 +2281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>150000</v>
       </c>
@@ -2273,7 +2292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>155000</v>
       </c>
@@ -2284,7 +2303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>160000</v>
       </c>
@@ -2295,7 +2314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>165000</v>
       </c>
@@ -2306,7 +2325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>170000</v>
       </c>
@@ -2317,7 +2336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>175000</v>
       </c>
@@ -2328,7 +2347,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>180000</v>
       </c>
@@ -2339,7 +2358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>185000</v>
       </c>
@@ -2350,7 +2369,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>190000</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>195000</v>
       </c>
@@ -2372,7 +2391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>200000</v>
       </c>
@@ -2383,7 +2402,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>210000</v>
       </c>
@@ -2394,7 +2413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>220000</v>
       </c>
@@ -2405,7 +2424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>230000</v>
       </c>
@@ -2416,7 +2435,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>240000</v>
       </c>
@@ -2427,7 +2446,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>250000</v>
       </c>
@@ -2438,7 +2457,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>260000</v>
       </c>
@@ -2449,7 +2468,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>270000</v>
       </c>
@@ -2460,7 +2479,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>280000</v>
       </c>
@@ -2471,7 +2490,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>290000</v>
       </c>
@@ -2482,7 +2501,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>300000</v>
       </c>
@@ -2493,7 +2512,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>310000</v>
       </c>
@@ -2504,7 +2523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>320000</v>
       </c>
@@ -2515,7 +2534,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>330000</v>
       </c>
@@ -2526,7 +2545,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>340000</v>
       </c>
@@ -2537,7 +2556,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>350000</v>
       </c>
@@ -2548,7 +2567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>360000</v>
       </c>
@@ -2559,7 +2578,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>370000</v>
       </c>
@@ -2570,7 +2589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>380000</v>
       </c>
@@ -2581,7 +2600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>390000</v>
       </c>
@@ -2592,7 +2611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>400000</v>
       </c>
@@ -2603,7 +2622,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>410000</v>
       </c>
@@ -2614,7 +2633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>420000</v>
       </c>
@@ -2625,7 +2644,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>430000</v>
       </c>
@@ -2636,7 +2655,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>440000</v>
       </c>
@@ -2647,7 +2666,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>450000</v>
       </c>
@@ -2658,77 +2677,77 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>460000</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>470000</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>480000</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>490000</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>500000</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>510000</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>520000</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>530000</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>540000</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>550000</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>560000</v>
       </c>
@@ -2754,14 +2773,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2772,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -2783,7 +2802,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -2794,7 +2813,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3000</v>
       </c>
@@ -2805,7 +2824,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4000</v>
       </c>
@@ -2816,7 +2835,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5000</v>
       </c>
@@ -2827,7 +2846,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6000</v>
       </c>
@@ -2838,7 +2857,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7000</v>
       </c>
@@ -2849,7 +2868,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8000</v>
       </c>
@@ -2860,7 +2879,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9000</v>
       </c>
@@ -2871,7 +2890,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10000</v>
       </c>
@@ -2882,7 +2901,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>15000</v>
       </c>
@@ -2893,7 +2912,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>20000</v>
       </c>
@@ -2904,7 +2923,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>25000</v>
       </c>
@@ -2915,7 +2934,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>30000</v>
       </c>
@@ -2926,7 +2945,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>35000</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>40000</v>
       </c>
@@ -2948,7 +2967,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45000</v>
       </c>
@@ -2959,7 +2978,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>50000</v>
       </c>
@@ -2970,7 +2989,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>55000</v>
       </c>
@@ -2981,7 +3000,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>60000</v>
       </c>
@@ -2992,7 +3011,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>65000</v>
       </c>
@@ -3003,7 +3022,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>70000</v>
       </c>
@@ -3014,7 +3033,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>75000</v>
       </c>
@@ -3025,7 +3044,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>80000</v>
       </c>
@@ -3036,7 +3055,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>85000</v>
       </c>
@@ -3047,7 +3066,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>90000</v>
       </c>
@@ -3058,7 +3077,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>95000</v>
       </c>
@@ -3069,7 +3088,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>100000</v>
       </c>
@@ -3080,7 +3099,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>105000</v>
       </c>
@@ -3091,7 +3110,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>110000</v>
       </c>
@@ -3102,7 +3121,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>115000</v>
       </c>
@@ -3113,7 +3132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>120000</v>
       </c>
@@ -3124,7 +3143,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>125000</v>
       </c>
@@ -3135,7 +3154,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>130000</v>
       </c>
@@ -3146,7 +3165,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>135000</v>
       </c>
@@ -3157,7 +3176,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>140000</v>
       </c>
@@ -3168,7 +3187,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>145000</v>
       </c>
@@ -3179,7 +3198,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>150000</v>
       </c>
@@ -3190,7 +3209,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>155000</v>
       </c>
@@ -3201,7 +3220,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>160000</v>
       </c>
@@ -3212,7 +3231,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>165000</v>
       </c>
@@ -3223,7 +3242,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>170000</v>
       </c>
@@ -3234,7 +3253,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>175000</v>
       </c>
@@ -3245,7 +3264,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>180000</v>
       </c>
@@ -3256,7 +3275,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>185000</v>
       </c>
@@ -3267,7 +3286,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>190000</v>
       </c>
@@ -3278,7 +3297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>195000</v>
       </c>
@@ -3289,7 +3308,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>200000</v>
       </c>
@@ -3300,7 +3319,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>210000</v>
       </c>
@@ -3311,7 +3330,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>220000</v>
       </c>
@@ -3322,7 +3341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>230000</v>
       </c>
@@ -3333,7 +3352,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>240000</v>
       </c>
@@ -3344,7 +3363,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>250000</v>
       </c>
@@ -3355,7 +3374,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>260000</v>
       </c>
@@ -3366,7 +3385,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>270000</v>
       </c>
@@ -3377,7 +3396,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>280000</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>290000</v>
       </c>
@@ -3399,7 +3418,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>300000</v>
       </c>
@@ -3410,7 +3429,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>310000</v>
       </c>
@@ -3421,7 +3440,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>320000</v>
       </c>
@@ -3432,7 +3451,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>330000</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>340000</v>
       </c>
@@ -3454,7 +3473,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>350000</v>
       </c>
@@ -3465,7 +3484,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>360000</v>
       </c>
@@ -3476,7 +3495,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>370000</v>
       </c>
@@ -3487,7 +3506,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>380000</v>
       </c>
@@ -3498,7 +3517,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>390000</v>
       </c>
@@ -3509,7 +3528,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>400000</v>
       </c>
@@ -3520,7 +3539,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>410000</v>
       </c>
@@ -3531,7 +3550,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>420000</v>
       </c>
@@ -3542,7 +3561,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>430000</v>
       </c>
@@ -3553,7 +3572,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>440000</v>
       </c>
@@ -3564,7 +3583,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>450000</v>
       </c>
@@ -3575,84 +3594,84 @@
         <v>295</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>460000</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>470000</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>480000</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>490000</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>500000</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>510000</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>520000</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>530000</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>540000</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>550000</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>560000</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>570000</v>
       </c>
@@ -3678,14 +3697,14 @@
       <selection sqref="A1:C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -3696,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -3707,7 +3726,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -3718,7 +3737,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3000</v>
       </c>
@@ -3729,7 +3748,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -3740,7 +3759,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -3751,7 +3770,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -3762,7 +3781,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7000</v>
       </c>
@@ -3773,7 +3792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8000</v>
       </c>
@@ -3784,7 +3803,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9000</v>
       </c>
@@ -3795,7 +3814,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -3806,7 +3825,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15000</v>
       </c>
@@ -3817,7 +3836,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20000</v>
       </c>
@@ -3828,7 +3847,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25000</v>
       </c>
@@ -3839,7 +3858,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30000</v>
       </c>
@@ -3850,7 +3869,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>35000</v>
       </c>
@@ -3861,7 +3880,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>40000</v>
       </c>
@@ -3872,7 +3891,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45000</v>
       </c>
@@ -3883,7 +3902,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50000</v>
       </c>
@@ -3894,7 +3913,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>55000</v>
       </c>
@@ -3905,7 +3924,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>60000</v>
       </c>
@@ -3916,7 +3935,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>65000</v>
       </c>
@@ -3927,7 +3946,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>70000</v>
       </c>
@@ -3938,7 +3957,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>75000</v>
       </c>
@@ -3949,7 +3968,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>80000</v>
       </c>
@@ -3960,7 +3979,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>85000</v>
       </c>
@@ -3971,7 +3990,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90000</v>
       </c>
@@ -3982,7 +4001,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>95000</v>
       </c>
@@ -3993,7 +4012,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>100000</v>
       </c>
@@ -4004,7 +4023,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>105000</v>
       </c>
@@ -4015,7 +4034,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>110000</v>
       </c>
@@ -4026,7 +4045,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>115000</v>
       </c>
@@ -4037,7 +4056,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>120000</v>
       </c>
@@ -4048,7 +4067,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>125000</v>
       </c>
@@ -4059,7 +4078,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>130000</v>
       </c>
@@ -4070,7 +4089,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>135000</v>
       </c>
@@ -4081,7 +4100,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>140000</v>
       </c>
@@ -4092,7 +4111,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>145000</v>
       </c>
@@ -4103,7 +4122,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>150000</v>
       </c>
@@ -4114,7 +4133,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>155000</v>
       </c>
@@ -4125,7 +4144,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>160000</v>
       </c>
@@ -4136,7 +4155,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>165000</v>
       </c>
@@ -4147,7 +4166,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>170000</v>
       </c>
@@ -4158,7 +4177,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>175000</v>
       </c>
@@ -4169,7 +4188,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>180000</v>
       </c>
@@ -4180,7 +4199,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>185000</v>
       </c>
@@ -4191,7 +4210,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>190000</v>
       </c>
@@ -4202,7 +4221,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>195000</v>
       </c>
@@ -4213,7 +4232,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>200000</v>
       </c>
@@ -4224,7 +4243,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>210000</v>
       </c>
@@ -4235,7 +4254,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>220000</v>
       </c>
@@ -4246,7 +4265,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>230000</v>
       </c>
@@ -4257,7 +4276,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>240000</v>
       </c>
@@ -4268,7 +4287,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>250000</v>
       </c>
@@ -4279,7 +4298,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>260000</v>
       </c>
@@ -4290,7 +4309,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>270000</v>
       </c>
@@ -4301,7 +4320,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>280000</v>
       </c>
@@ -4312,7 +4331,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>290000</v>
       </c>
@@ -4323,7 +4342,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>300000</v>
       </c>
@@ -4334,7 +4353,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>310000</v>
       </c>
@@ -4345,7 +4364,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>320000</v>
       </c>
@@ -4356,7 +4375,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>330000</v>
       </c>
@@ -4367,7 +4386,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>340000</v>
       </c>
@@ -4378,7 +4397,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>350000</v>
       </c>
@@ -4389,7 +4408,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>360000</v>
       </c>
@@ -4400,7 +4419,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>370000</v>
       </c>
@@ -4411,7 +4430,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>380000</v>
       </c>
@@ -4422,7 +4441,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>390000</v>
       </c>
@@ -4433,7 +4452,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>400000</v>
       </c>
@@ -4444,7 +4463,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>410000</v>
       </c>
@@ -4455,7 +4474,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>420000</v>
       </c>
@@ -4466,7 +4485,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>430000</v>
       </c>
@@ -4477,7 +4496,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>440000</v>
       </c>
@@ -4488,7 +4507,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>450000</v>
       </c>
@@ -4499,57 +4518,57 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>460000</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>470000</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>480000</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>490000</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>500000</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>510000</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>520000</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>530000</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>540000</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>550000</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>560000</v>
       </c>
@@ -4567,15 +4586,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -4583,2420 +4602,3300 @@
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="1">
         <v>14268</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
+        <f>B2/1000</f>
+        <v>14.268000000000001</v>
+      </c>
+      <c r="D2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="1">
         <v>18204</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C66" si="0">B3/1000</f>
+        <v>18.204000000000001</v>
+      </c>
+      <c r="D3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
       <c r="B4" s="1">
         <v>24475</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>24.475000000000001</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4000</v>
       </c>
       <c r="B5" s="1">
         <v>30485</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>30.484999999999999</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5000</v>
       </c>
       <c r="B6" s="1">
         <v>32090</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>32.090000000000003</v>
+      </c>
+      <c r="D6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6000</v>
       </c>
       <c r="B7" s="1">
         <v>36374</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>36.374000000000002</v>
+      </c>
+      <c r="D7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7000</v>
       </c>
       <c r="B8" s="1">
         <v>44591</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>44.591000000000001</v>
+      </c>
+      <c r="D8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
       <c r="B9" s="1">
         <v>43093</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>43.093000000000004</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9000</v>
       </c>
       <c r="B10" s="1">
         <v>40616</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>40.616</v>
+      </c>
+      <c r="D10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10000</v>
       </c>
       <c r="B11" s="1">
         <v>46197</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>46.197000000000003</v>
+      </c>
+      <c r="D11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>15000</v>
       </c>
       <c r="B12" s="1">
         <v>63620</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>63.62</v>
+      </c>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20000</v>
       </c>
       <c r="B13" s="1">
         <v>81698</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>81.697999999999993</v>
+      </c>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25000</v>
       </c>
       <c r="B14" s="1">
         <v>93310</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>93.31</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30000</v>
       </c>
       <c r="B15" s="1">
         <v>99713</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>99.712999999999994</v>
+      </c>
+      <c r="D15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35000</v>
       </c>
       <c r="B16" s="1">
         <v>112080</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>112.08</v>
+      </c>
+      <c r="D16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40000</v>
       </c>
       <c r="B17" s="1">
         <v>127428</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>127.428</v>
+      </c>
+      <c r="D17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45000</v>
       </c>
       <c r="B18" s="1">
         <v>140432</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>140.43199999999999</v>
+      </c>
+      <c r="D18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>50000</v>
       </c>
       <c r="B19" s="1">
         <v>144348</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>144.34800000000001</v>
+      </c>
+      <c r="D19" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>55000</v>
       </c>
       <c r="B20" s="1">
         <v>156605</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>156.60499999999999</v>
+      </c>
+      <c r="D20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>60000</v>
       </c>
       <c r="B21" s="1">
         <v>166861</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>166.86099999999999</v>
+      </c>
+      <c r="D21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>65000</v>
       </c>
       <c r="B22" s="1">
         <v>171297</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>171.297</v>
+      </c>
+      <c r="D22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>70000</v>
       </c>
       <c r="B23" s="1">
         <v>191597</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>191.59700000000001</v>
+      </c>
+      <c r="D23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>75000</v>
       </c>
       <c r="B24" s="1">
         <v>196005</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>196.005</v>
+      </c>
+      <c r="D24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>80000</v>
       </c>
       <c r="B25" s="1">
         <v>197675</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>197.67500000000001</v>
+      </c>
+      <c r="D25" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>85000</v>
       </c>
       <c r="B26" s="1">
         <v>212972</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>212.97200000000001</v>
+      </c>
+      <c r="D26" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>90000</v>
       </c>
       <c r="B27" s="1">
         <v>222801</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>222.80099999999999</v>
+      </c>
+      <c r="D27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>95000</v>
       </c>
       <c r="B28" s="1">
         <v>230844</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>230.84399999999999</v>
+      </c>
+      <c r="D28" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>100000</v>
       </c>
       <c r="B29" s="1">
         <v>247388</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>247.38800000000001</v>
+      </c>
+      <c r="D29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>105000</v>
       </c>
       <c r="B30" s="1">
         <v>248815</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>248.815</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>110000</v>
       </c>
       <c r="B31" s="1">
         <v>262344</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>262.34399999999999</v>
+      </c>
+      <c r="D31" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>115000</v>
       </c>
       <c r="B32" s="1">
         <v>271357</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>271.35700000000003</v>
+      </c>
+      <c r="D32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>120000</v>
       </c>
       <c r="B33" s="1">
         <v>278368</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>278.36799999999999</v>
+      </c>
+      <c r="D33" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>125000</v>
       </c>
       <c r="B34" s="1">
         <v>273825</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>273.82499999999999</v>
+      </c>
+      <c r="D34" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>130000</v>
       </c>
       <c r="B35" s="1">
         <v>280471</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>280.471</v>
+      </c>
+      <c r="D35" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>135000</v>
       </c>
       <c r="B36" s="1">
         <v>291189</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>291.18900000000002</v>
+      </c>
+      <c r="D36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>140000</v>
       </c>
       <c r="B37" s="1">
         <v>284313</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>284.31299999999999</v>
+      </c>
+      <c r="D37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>145000</v>
       </c>
       <c r="B38" s="1">
         <v>286449</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>286.44900000000001</v>
+      </c>
+      <c r="D38" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>150000</v>
       </c>
       <c r="B39" s="1">
         <v>291749</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>291.74900000000002</v>
+      </c>
+      <c r="D39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>155000</v>
       </c>
       <c r="B40" s="1">
         <v>301872</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>301.87200000000001</v>
+      </c>
+      <c r="D40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>160000</v>
       </c>
       <c r="B41" s="1">
         <v>296165</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>296.16500000000002</v>
+      </c>
+      <c r="D41" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>165000</v>
       </c>
       <c r="B42" s="1">
         <v>301932</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>301.93200000000002</v>
+      </c>
+      <c r="D42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>170000</v>
       </c>
       <c r="B43" s="1">
         <v>296193</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>296.19299999999998</v>
+      </c>
+      <c r="D43" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>175000</v>
       </c>
       <c r="B44" s="1">
         <v>302128</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>302.12799999999999</v>
+      </c>
+      <c r="D44" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>180000</v>
       </c>
       <c r="B45" s="1">
         <v>305133</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>305.13299999999998</v>
+      </c>
+      <c r="D45" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>185000</v>
       </c>
       <c r="B46" s="1">
         <v>308849</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>308.84899999999999</v>
+      </c>
+      <c r="D46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>190000</v>
       </c>
       <c r="B47" s="1">
         <v>303800</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>303.8</v>
+      </c>
+      <c r="D47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>195000</v>
       </c>
       <c r="B48" s="1">
         <v>313419</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>313.41899999999998</v>
+      </c>
+      <c r="D48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>200000</v>
       </c>
       <c r="B49" s="1">
         <v>320493</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>320.49299999999999</v>
+      </c>
+      <c r="D49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>210000</v>
       </c>
       <c r="B50" s="1">
         <v>319384</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>319.38400000000001</v>
+      </c>
+      <c r="D50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>220000</v>
       </c>
       <c r="B51" s="1">
         <v>316460</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>316.45999999999998</v>
+      </c>
+      <c r="D51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>230000</v>
       </c>
       <c r="B52" s="1">
         <v>340219</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>340.21899999999999</v>
+      </c>
+      <c r="D52" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>240000</v>
       </c>
       <c r="B53" s="1">
         <v>342063</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>342.06299999999999</v>
+      </c>
+      <c r="D53" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>250000</v>
       </c>
       <c r="B54" s="1">
         <v>334719</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>334.71899999999999</v>
+      </c>
+      <c r="D54" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>260000</v>
       </c>
       <c r="B55" s="1">
         <v>334662</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>334.66199999999998</v>
+      </c>
+      <c r="D55" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>270000</v>
       </c>
       <c r="B56" s="1">
         <v>370329</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
+        <f t="shared" si="0"/>
+        <v>370.32900000000001</v>
+      </c>
+      <c r="D56" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>280000</v>
       </c>
       <c r="B57" s="1">
         <v>363195</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
+        <f t="shared" si="0"/>
+        <v>363.19499999999999</v>
+      </c>
+      <c r="D57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>290000</v>
       </c>
       <c r="B58" s="1">
         <v>370177</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="3">
+        <f t="shared" si="0"/>
+        <v>370.17700000000002</v>
+      </c>
+      <c r="D58" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>300000</v>
       </c>
       <c r="B59" s="1">
         <v>383979</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
+        <f t="shared" si="0"/>
+        <v>383.97899999999998</v>
+      </c>
+      <c r="D59" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>310000</v>
       </c>
       <c r="B60" s="1">
         <v>399464</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
+        <f t="shared" si="0"/>
+        <v>399.464</v>
+      </c>
+      <c r="D60" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>320000</v>
       </c>
       <c r="B61" s="1">
         <v>418749</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>418.74900000000002</v>
+      </c>
+      <c r="D61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>330000</v>
       </c>
       <c r="B62" s="1">
         <v>425725</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>425.72500000000002</v>
+      </c>
+      <c r="D62" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>340000</v>
       </c>
       <c r="B63" s="1">
         <v>437536</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
+        <f t="shared" si="0"/>
+        <v>437.536</v>
+      </c>
+      <c r="D63" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>350000</v>
       </c>
       <c r="B64" s="1">
         <v>465966</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
+        <f t="shared" si="0"/>
+        <v>465.96600000000001</v>
+      </c>
+      <c r="D64" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>360000</v>
       </c>
       <c r="B65" s="1">
         <v>489134</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="3">
+        <f t="shared" si="0"/>
+        <v>489.13400000000001</v>
+      </c>
+      <c r="D65" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>370000</v>
       </c>
       <c r="B66" s="1">
         <v>494735</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="3">
+        <f t="shared" si="0"/>
+        <v>494.73500000000001</v>
+      </c>
+      <c r="D66" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>380000</v>
       </c>
       <c r="B67" s="1">
         <v>513453</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:C130" si="1">B67/1000</f>
+        <v>513.45299999999997</v>
+      </c>
+      <c r="D67" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>390000</v>
       </c>
       <c r="B68" s="1">
         <v>491026</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="3">
+        <f t="shared" si="1"/>
+        <v>491.02600000000001</v>
+      </c>
+      <c r="D68" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>400000</v>
       </c>
       <c r="B69" s="1">
         <v>493216</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="3">
+        <f t="shared" si="1"/>
+        <v>493.21600000000001</v>
+      </c>
+      <c r="D69" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>410000</v>
       </c>
       <c r="B70" s="1">
         <v>493427</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="3">
+        <f t="shared" si="1"/>
+        <v>493.42700000000002</v>
+      </c>
+      <c r="D70" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>420000</v>
       </c>
       <c r="B71" s="1">
         <v>505066</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="3">
+        <f t="shared" si="1"/>
+        <v>505.06599999999997</v>
+      </c>
+      <c r="D71" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>430000</v>
       </c>
       <c r="B72" s="1">
         <v>506868</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>506.86799999999999</v>
+      </c>
+      <c r="D72" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>440000</v>
       </c>
       <c r="B73" s="1">
         <v>511135</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="3">
+        <f t="shared" si="1"/>
+        <v>511.13499999999999</v>
+      </c>
+      <c r="D73" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>450000</v>
       </c>
       <c r="B74" s="1">
         <v>504779</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>504.779</v>
+      </c>
+      <c r="D74" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1000</v>
       </c>
       <c r="B75" s="1">
         <v>14751</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
+        <f t="shared" si="1"/>
+        <v>14.750999999999999</v>
+      </c>
+      <c r="D75" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2000</v>
       </c>
       <c r="B76" s="1">
         <v>19421</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
+        <f t="shared" si="1"/>
+        <v>19.420999999999999</v>
+      </c>
+      <c r="D76" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>3000</v>
       </c>
       <c r="B77" s="1">
         <v>20954</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="3">
+        <f t="shared" si="1"/>
+        <v>20.954000000000001</v>
+      </c>
+      <c r="D77" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>4000</v>
       </c>
       <c r="B78" s="1">
         <v>27854</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
+        <f t="shared" si="1"/>
+        <v>27.853999999999999</v>
+      </c>
+      <c r="D78" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>5000</v>
       </c>
       <c r="B79" s="1">
         <v>35187</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="3">
+        <f t="shared" si="1"/>
+        <v>35.186999999999998</v>
+      </c>
+      <c r="D79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>6000</v>
       </c>
       <c r="B80" s="1">
         <v>34642</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="3">
+        <f t="shared" si="1"/>
+        <v>34.642000000000003</v>
+      </c>
+      <c r="D80" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>7000</v>
       </c>
       <c r="B81" s="1">
         <v>38761</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="3">
+        <f t="shared" si="1"/>
+        <v>38.761000000000003</v>
+      </c>
+      <c r="D81" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>8000</v>
       </c>
       <c r="B82" s="1">
         <v>41125</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="3">
+        <f t="shared" si="1"/>
+        <v>41.125</v>
+      </c>
+      <c r="D82" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>9000</v>
       </c>
       <c r="B83" s="1">
         <v>41526</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="3">
+        <f t="shared" si="1"/>
+        <v>41.526000000000003</v>
+      </c>
+      <c r="D83" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>10000</v>
       </c>
       <c r="B84" s="1">
         <v>45942</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="3">
+        <f t="shared" si="1"/>
+        <v>45.942</v>
+      </c>
+      <c r="D84" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>15000</v>
       </c>
       <c r="B85" s="1">
         <v>63685</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="3">
+        <f t="shared" si="1"/>
+        <v>63.685000000000002</v>
+      </c>
+      <c r="D85" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>20000</v>
       </c>
       <c r="B86" s="1">
         <v>76369</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="3">
+        <f t="shared" si="1"/>
+        <v>76.369</v>
+      </c>
+      <c r="D86" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>25000</v>
       </c>
       <c r="B87" s="1">
         <v>88764</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="3">
+        <f t="shared" si="1"/>
+        <v>88.763999999999996</v>
+      </c>
+      <c r="D87" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>30000</v>
       </c>
       <c r="B88" s="1">
         <v>102940</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="3">
+        <f t="shared" si="1"/>
+        <v>102.94</v>
+      </c>
+      <c r="D88" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>35000</v>
       </c>
       <c r="B89" s="1">
         <v>111376</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="3">
+        <f t="shared" si="1"/>
+        <v>111.376</v>
+      </c>
+      <c r="D89" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>40000</v>
       </c>
       <c r="B90" s="1">
         <v>129651</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="3">
+        <f t="shared" si="1"/>
+        <v>129.65100000000001</v>
+      </c>
+      <c r="D90" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45000</v>
       </c>
       <c r="B91" s="1">
         <v>132752</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="3">
+        <f t="shared" si="1"/>
+        <v>132.75200000000001</v>
+      </c>
+      <c r="D91" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>50000</v>
       </c>
       <c r="B92" s="1">
         <v>146479</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="3">
+        <f t="shared" si="1"/>
+        <v>146.47900000000001</v>
+      </c>
+      <c r="D92" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>55000</v>
       </c>
       <c r="B93" s="1">
         <v>158126</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="3">
+        <f t="shared" si="1"/>
+        <v>158.126</v>
+      </c>
+      <c r="D93" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>60000</v>
       </c>
       <c r="B94" s="1">
         <v>169578</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="3">
+        <f t="shared" si="1"/>
+        <v>169.578</v>
+      </c>
+      <c r="D94" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>65000</v>
       </c>
       <c r="B95" s="1">
         <v>175198</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="3">
+        <f t="shared" si="1"/>
+        <v>175.19800000000001</v>
+      </c>
+      <c r="D95" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>70000</v>
       </c>
       <c r="B96" s="1">
         <v>182368</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="3">
+        <f t="shared" si="1"/>
+        <v>182.36799999999999</v>
+      </c>
+      <c r="D96" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>75000</v>
       </c>
       <c r="B97" s="1">
         <v>203250</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="3">
+        <f t="shared" si="1"/>
+        <v>203.25</v>
+      </c>
+      <c r="D97" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>80000</v>
       </c>
       <c r="B98" s="1">
         <v>213978</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="3">
+        <f t="shared" si="1"/>
+        <v>213.97800000000001</v>
+      </c>
+      <c r="D98" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>85000</v>
       </c>
       <c r="B99" s="1">
         <v>209036</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="3">
+        <f t="shared" si="1"/>
+        <v>209.036</v>
+      </c>
+      <c r="D99" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>90000</v>
       </c>
       <c r="B100" s="1">
         <v>228873</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="3">
+        <f t="shared" si="1"/>
+        <v>228.87299999999999</v>
+      </c>
+      <c r="D100" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>95000</v>
       </c>
       <c r="B101" s="1">
         <v>239784</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="3">
+        <f t="shared" si="1"/>
+        <v>239.78399999999999</v>
+      </c>
+      <c r="D101" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100000</v>
       </c>
       <c r="B102" s="1">
         <v>243209</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="3">
+        <f t="shared" si="1"/>
+        <v>243.209</v>
+      </c>
+      <c r="D102" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>105000</v>
       </c>
       <c r="B103" s="1">
         <v>254078</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="3">
+        <f t="shared" si="1"/>
+        <v>254.078</v>
+      </c>
+      <c r="D103" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>110000</v>
       </c>
       <c r="B104" s="1">
         <v>264703</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="3">
+        <f t="shared" si="1"/>
+        <v>264.70299999999997</v>
+      </c>
+      <c r="D104" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>115000</v>
       </c>
       <c r="B105" s="1">
         <v>267403</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>267.40300000000002</v>
+      </c>
+      <c r="D105" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>120000</v>
       </c>
       <c r="B106" s="1">
         <v>281890</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="3">
+        <f t="shared" si="1"/>
+        <v>281.89</v>
+      </c>
+      <c r="D106" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>125000</v>
       </c>
       <c r="B107" s="1">
         <v>272270</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="3">
+        <f t="shared" si="1"/>
+        <v>272.27</v>
+      </c>
+      <c r="D107" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>130000</v>
       </c>
       <c r="B108" s="1">
         <v>284367</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="3">
+        <f t="shared" si="1"/>
+        <v>284.36700000000002</v>
+      </c>
+      <c r="D108" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>135000</v>
       </c>
       <c r="B109" s="1">
         <v>275972</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="3">
+        <f t="shared" si="1"/>
+        <v>275.97199999999998</v>
+      </c>
+      <c r="D109" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>140000</v>
       </c>
       <c r="B110" s="1">
         <v>277679</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="3">
+        <f t="shared" si="1"/>
+        <v>277.67899999999997</v>
+      </c>
+      <c r="D110" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>145000</v>
       </c>
       <c r="B111" s="1">
         <v>291885</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="3">
+        <f t="shared" si="1"/>
+        <v>291.88499999999999</v>
+      </c>
+      <c r="D111" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>150000</v>
       </c>
       <c r="B112" s="1">
         <v>285215</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="3">
+        <f t="shared" si="1"/>
+        <v>285.21499999999997</v>
+      </c>
+      <c r="D112" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>155000</v>
       </c>
       <c r="B113" s="1">
         <v>294187</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="3">
+        <f t="shared" si="1"/>
+        <v>294.18700000000001</v>
+      </c>
+      <c r="D113" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>160000</v>
       </c>
       <c r="B114" s="1">
         <v>299899</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="3">
+        <f t="shared" si="1"/>
+        <v>299.899</v>
+      </c>
+      <c r="D114" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>165000</v>
       </c>
       <c r="B115" s="1">
         <v>296138</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="3">
+        <f t="shared" si="1"/>
+        <v>296.13799999999998</v>
+      </c>
+      <c r="D115" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>170000</v>
       </c>
       <c r="B116" s="1">
         <v>296504</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="3">
+        <f t="shared" si="1"/>
+        <v>296.50400000000002</v>
+      </c>
+      <c r="D116" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>175000</v>
       </c>
       <c r="B117" s="1">
         <v>300729</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="3">
+        <f t="shared" si="1"/>
+        <v>300.72899999999998</v>
+      </c>
+      <c r="D117" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>180000</v>
       </c>
       <c r="B118" s="1">
         <v>295824</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="3">
+        <f t="shared" si="1"/>
+        <v>295.82400000000001</v>
+      </c>
+      <c r="D118" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>185000</v>
       </c>
       <c r="B119" s="1">
         <v>300445</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="3">
+        <f t="shared" si="1"/>
+        <v>300.44499999999999</v>
+      </c>
+      <c r="D119" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>190000</v>
       </c>
       <c r="B120" s="1">
         <v>307356</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="3">
+        <f t="shared" si="1"/>
+        <v>307.35599999999999</v>
+      </c>
+      <c r="D120" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>195000</v>
       </c>
       <c r="B121" s="1">
         <v>313062</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="3">
+        <f t="shared" si="1"/>
+        <v>313.06200000000001</v>
+      </c>
+      <c r="D121" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>200000</v>
       </c>
       <c r="B122" s="1">
         <v>307836</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="3">
+        <f t="shared" si="1"/>
+        <v>307.83600000000001</v>
+      </c>
+      <c r="D122" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>210000</v>
       </c>
       <c r="B123" s="1">
         <v>313658</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="3">
+        <f t="shared" si="1"/>
+        <v>313.65800000000002</v>
+      </c>
+      <c r="D123" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>220000</v>
       </c>
       <c r="B124" s="1">
         <v>315938</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="3">
+        <f t="shared" si="1"/>
+        <v>315.93799999999999</v>
+      </c>
+      <c r="D124" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>230000</v>
       </c>
       <c r="B125" s="1">
         <v>324424</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="3">
+        <f t="shared" si="1"/>
+        <v>324.42399999999998</v>
+      </c>
+      <c r="D125" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>240000</v>
       </c>
       <c r="B126" s="1">
         <v>328202</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="3">
+        <f t="shared" si="1"/>
+        <v>328.202</v>
+      </c>
+      <c r="D126" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>250000</v>
       </c>
       <c r="B127" s="1">
         <v>344255</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="3">
+        <f t="shared" si="1"/>
+        <v>344.255</v>
+      </c>
+      <c r="D127" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>260000</v>
       </c>
       <c r="B128" s="1">
         <v>341328</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="3">
+        <f t="shared" si="1"/>
+        <v>341.32799999999997</v>
+      </c>
+      <c r="D128" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>270000</v>
       </c>
       <c r="B129" s="1">
         <v>365399</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="3">
+        <f t="shared" si="1"/>
+        <v>365.399</v>
+      </c>
+      <c r="D129" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>280000</v>
       </c>
       <c r="B130" s="1">
         <v>365134</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="3">
+        <f t="shared" si="1"/>
+        <v>365.13400000000001</v>
+      </c>
+      <c r="D130" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>290000</v>
       </c>
       <c r="B131" s="1">
         <v>378107</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="3">
+        <f t="shared" ref="C131:C194" si="2">B131/1000</f>
+        <v>378.10700000000003</v>
+      </c>
+      <c r="D131" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>300000</v>
       </c>
       <c r="B132" s="1">
         <v>393705</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="3">
+        <f t="shared" si="2"/>
+        <v>393.70499999999998</v>
+      </c>
+      <c r="D132" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>310000</v>
       </c>
       <c r="B133" s="1">
         <v>399015</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="3">
+        <f t="shared" si="2"/>
+        <v>399.01499999999999</v>
+      </c>
+      <c r="D133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>320000</v>
       </c>
       <c r="B134" s="1">
         <v>410254</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="3">
+        <f t="shared" si="2"/>
+        <v>410.25400000000002</v>
+      </c>
+      <c r="D134" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>330000</v>
       </c>
       <c r="B135" s="1">
         <v>424065</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="3">
+        <f t="shared" si="2"/>
+        <v>424.065</v>
+      </c>
+      <c r="D135" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>340000</v>
       </c>
       <c r="B136" s="1">
         <v>438853</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="3">
+        <f t="shared" si="2"/>
+        <v>438.85300000000001</v>
+      </c>
+      <c r="D136" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>350000</v>
       </c>
       <c r="B137" s="1">
         <v>455507</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="3">
+        <f t="shared" si="2"/>
+        <v>455.50700000000001</v>
+      </c>
+      <c r="D137" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>360000</v>
       </c>
       <c r="B138" s="1">
         <v>485568</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="3">
+        <f t="shared" si="2"/>
+        <v>485.56799999999998</v>
+      </c>
+      <c r="D138" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>370000</v>
       </c>
       <c r="B139" s="1">
         <v>477028</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="3">
+        <f t="shared" si="2"/>
+        <v>477.02800000000002</v>
+      </c>
+      <c r="D139" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>380000</v>
       </c>
       <c r="B140" s="1">
         <v>479967</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="3">
+        <f t="shared" si="2"/>
+        <v>479.96699999999998</v>
+      </c>
+      <c r="D140" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>390000</v>
       </c>
       <c r="B141" s="1">
         <v>480893</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="3">
+        <f t="shared" si="2"/>
+        <v>480.89299999999997</v>
+      </c>
+      <c r="D141" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>400000</v>
       </c>
       <c r="B142" s="1">
         <v>491649</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="3">
+        <f t="shared" si="2"/>
+        <v>491.649</v>
+      </c>
+      <c r="D142" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>410000</v>
       </c>
       <c r="B143" s="1">
         <v>493728</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="3">
+        <f t="shared" si="2"/>
+        <v>493.72800000000001</v>
+      </c>
+      <c r="D143" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>420000</v>
       </c>
       <c r="B144" s="1">
         <v>506716</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="3">
+        <f t="shared" si="2"/>
+        <v>506.71600000000001</v>
+      </c>
+      <c r="D144" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>430000</v>
       </c>
       <c r="B145" s="1">
         <v>501439</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="3">
+        <f t="shared" si="2"/>
+        <v>501.43900000000002</v>
+      </c>
+      <c r="D145" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>440000</v>
       </c>
       <c r="B146" s="1">
         <v>502316</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="3">
+        <f t="shared" si="2"/>
+        <v>502.31599999999997</v>
+      </c>
+      <c r="D146" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>450000</v>
       </c>
       <c r="B147" s="1">
         <v>509294</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="3">
+        <f t="shared" si="2"/>
+        <v>509.29399999999998</v>
+      </c>
+      <c r="D147" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1000</v>
       </c>
       <c r="B148" s="1">
         <v>14262</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="3">
+        <f t="shared" si="2"/>
+        <v>14.262</v>
+      </c>
+      <c r="D148" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2000</v>
       </c>
       <c r="B149" s="1">
         <v>17363</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="3">
+        <f t="shared" si="2"/>
+        <v>17.363</v>
+      </c>
+      <c r="D149" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>3000</v>
       </c>
       <c r="B150" s="1">
         <v>22202</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="3">
+        <f t="shared" si="2"/>
+        <v>22.202000000000002</v>
+      </c>
+      <c r="D150" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>4000</v>
       </c>
       <c r="B151" s="1">
         <v>27400</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="3">
+        <f t="shared" si="2"/>
+        <v>27.4</v>
+      </c>
+      <c r="D151" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>5000</v>
       </c>
       <c r="B152" s="1">
         <v>28463</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="3">
+        <f t="shared" si="2"/>
+        <v>28.463000000000001</v>
+      </c>
+      <c r="D152" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>6000</v>
       </c>
       <c r="B153" s="1">
         <v>36234</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="3">
+        <f t="shared" si="2"/>
+        <v>36.234000000000002</v>
+      </c>
+      <c r="D153" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>7000</v>
       </c>
       <c r="B154" s="1">
         <v>39014</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="3">
+        <f t="shared" si="2"/>
+        <v>39.014000000000003</v>
+      </c>
+      <c r="D154" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>8000</v>
       </c>
       <c r="B155" s="1">
         <v>44193</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="3">
+        <f t="shared" si="2"/>
+        <v>44.192999999999998</v>
+      </c>
+      <c r="D155" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>9000</v>
       </c>
       <c r="B156" s="1">
         <v>44701</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="3">
+        <f t="shared" si="2"/>
+        <v>44.701000000000001</v>
+      </c>
+      <c r="D156" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>10000</v>
       </c>
       <c r="B157" s="1">
         <v>44907</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="3">
+        <f t="shared" si="2"/>
+        <v>44.906999999999996</v>
+      </c>
+      <c r="D157" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>15000</v>
       </c>
       <c r="B158" s="1">
         <v>59167</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="3">
+        <f t="shared" si="2"/>
+        <v>59.167000000000002</v>
+      </c>
+      <c r="D158" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>20000</v>
       </c>
       <c r="B159" s="1">
         <v>77356</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="3">
+        <f t="shared" si="2"/>
+        <v>77.355999999999995</v>
+      </c>
+      <c r="D159" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>25000</v>
       </c>
       <c r="B160" s="1">
         <v>88753</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="3">
+        <f t="shared" si="2"/>
+        <v>88.753</v>
+      </c>
+      <c r="D160" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>30000</v>
       </c>
       <c r="B161" s="1">
         <v>103921</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="3">
+        <f t="shared" si="2"/>
+        <v>103.92100000000001</v>
+      </c>
+      <c r="D161" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>35000</v>
       </c>
       <c r="B162" s="1">
         <v>110157</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="3">
+        <f t="shared" si="2"/>
+        <v>110.157</v>
+      </c>
+      <c r="D162" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>40000</v>
       </c>
       <c r="B163" s="1">
         <v>125413</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="3">
+        <f t="shared" si="2"/>
+        <v>125.413</v>
+      </c>
+      <c r="D163" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45000</v>
       </c>
       <c r="B164" s="1">
         <v>136378</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="3">
+        <f t="shared" si="2"/>
+        <v>136.37799999999999</v>
+      </c>
+      <c r="D164" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>50000</v>
       </c>
       <c r="B165" s="1">
         <v>147122</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="3">
+        <f t="shared" si="2"/>
+        <v>147.12200000000001</v>
+      </c>
+      <c r="D165" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>55000</v>
       </c>
       <c r="B166" s="1">
         <v>154455</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="3">
+        <f t="shared" si="2"/>
+        <v>154.45500000000001</v>
+      </c>
+      <c r="D166" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>60000</v>
       </c>
       <c r="B167" s="1">
         <v>168765</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="3">
+        <f t="shared" si="2"/>
+        <v>168.76499999999999</v>
+      </c>
+      <c r="D167" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>65000</v>
       </c>
       <c r="B168" s="1">
         <v>180823</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="3">
+        <f t="shared" si="2"/>
+        <v>180.82300000000001</v>
+      </c>
+      <c r="D168" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>70000</v>
       </c>
       <c r="B169" s="1">
         <v>190409</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="3">
+        <f t="shared" si="2"/>
+        <v>190.40899999999999</v>
+      </c>
+      <c r="D169" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>75000</v>
       </c>
       <c r="B170" s="1">
         <v>190323</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="3">
+        <f t="shared" si="2"/>
+        <v>190.32300000000001</v>
+      </c>
+      <c r="D170" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>80000</v>
       </c>
       <c r="B171" s="1">
         <v>199805</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="3">
+        <f t="shared" si="2"/>
+        <v>199.80500000000001</v>
+      </c>
+      <c r="D171" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>85000</v>
       </c>
       <c r="B172" s="1">
         <v>218982</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="3">
+        <f t="shared" si="2"/>
+        <v>218.982</v>
+      </c>
+      <c r="D172" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>90000</v>
       </c>
       <c r="B173" s="1">
         <v>228239</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="3">
+        <f t="shared" si="2"/>
+        <v>228.239</v>
+      </c>
+      <c r="D173" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>95000</v>
       </c>
       <c r="B174" s="1">
         <v>239420</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="3">
+        <f t="shared" si="2"/>
+        <v>239.42</v>
+      </c>
+      <c r="D174" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>100000</v>
       </c>
       <c r="B175" s="1">
         <v>241528</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="3">
+        <f t="shared" si="2"/>
+        <v>241.52799999999999</v>
+      </c>
+      <c r="D175" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>105000</v>
       </c>
       <c r="B176" s="1">
         <v>247962</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="3">
+        <f t="shared" si="2"/>
+        <v>247.96199999999999</v>
+      </c>
+      <c r="D176" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>110000</v>
       </c>
       <c r="B177" s="1">
         <v>263152</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="3">
+        <f t="shared" si="2"/>
+        <v>263.15199999999999</v>
+      </c>
+      <c r="D177" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>115000</v>
       </c>
       <c r="B178" s="1">
         <v>267093</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="3">
+        <f t="shared" si="2"/>
+        <v>267.09300000000002</v>
+      </c>
+      <c r="D178" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>120000</v>
       </c>
       <c r="B179" s="1">
         <v>283129</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="3">
+        <f t="shared" si="2"/>
+        <v>283.12900000000002</v>
+      </c>
+      <c r="D179" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>125000</v>
       </c>
       <c r="B180" s="1">
         <v>280982</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="3">
+        <f t="shared" si="2"/>
+        <v>280.98200000000003</v>
+      </c>
+      <c r="D180" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>130000</v>
       </c>
       <c r="B181" s="1">
         <v>274206</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="3">
+        <f t="shared" si="2"/>
+        <v>274.20600000000002</v>
+      </c>
+      <c r="D181" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>135000</v>
       </c>
       <c r="B182" s="1">
         <v>280074</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="3">
+        <f t="shared" si="2"/>
+        <v>280.07400000000001</v>
+      </c>
+      <c r="D182" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>140000</v>
       </c>
       <c r="B183" s="1">
         <v>296206</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="3">
+        <f t="shared" si="2"/>
+        <v>296.20600000000002</v>
+      </c>
+      <c r="D183" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>145000</v>
       </c>
       <c r="B184" s="1">
         <v>296413</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="3">
+        <f t="shared" si="2"/>
+        <v>296.41300000000001</v>
+      </c>
+      <c r="D184" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>150000</v>
       </c>
       <c r="B185" s="1">
         <v>280663</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="3">
+        <f t="shared" si="2"/>
+        <v>280.66300000000001</v>
+      </c>
+      <c r="D185" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>155000</v>
       </c>
       <c r="B186" s="1">
         <v>295294</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="3">
+        <f t="shared" si="2"/>
+        <v>295.29399999999998</v>
+      </c>
+      <c r="D186" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>160000</v>
       </c>
       <c r="B187" s="1">
         <v>283743</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="3">
+        <f t="shared" si="2"/>
+        <v>283.74299999999999</v>
+      </c>
+      <c r="D187" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>165000</v>
       </c>
       <c r="B188" s="1">
         <v>285543</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="3">
+        <f t="shared" si="2"/>
+        <v>285.54300000000001</v>
+      </c>
+      <c r="D188" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>170000</v>
       </c>
       <c r="B189" s="1">
         <v>295205</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="3">
+        <f t="shared" si="2"/>
+        <v>295.20499999999998</v>
+      </c>
+      <c r="D189" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>175000</v>
       </c>
       <c r="B190" s="1">
         <v>306013</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="3">
+        <f t="shared" si="2"/>
+        <v>306.01299999999998</v>
+      </c>
+      <c r="D190" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>180000</v>
       </c>
       <c r="B191" s="1">
         <v>297792</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="3">
+        <f t="shared" si="2"/>
+        <v>297.79199999999997</v>
+      </c>
+      <c r="D191" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>185000</v>
       </c>
       <c r="B192" s="1">
         <v>296339</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="3">
+        <f t="shared" si="2"/>
+        <v>296.339</v>
+      </c>
+      <c r="D192" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>190000</v>
       </c>
       <c r="B193" s="1">
         <v>305772</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="3">
+        <f t="shared" si="2"/>
+        <v>305.77199999999999</v>
+      </c>
+      <c r="D193" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>195000</v>
       </c>
       <c r="B194" s="1">
         <v>298374</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="3">
+        <f t="shared" si="2"/>
+        <v>298.37400000000002</v>
+      </c>
+      <c r="D194" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>200000</v>
       </c>
       <c r="B195" s="1">
         <v>301133</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="3">
+        <f t="shared" ref="C195:C220" si="3">B195/1000</f>
+        <v>301.13299999999998</v>
+      </c>
+      <c r="D195" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>210000</v>
       </c>
       <c r="B196" s="1">
         <v>302976</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="3">
+        <f t="shared" si="3"/>
+        <v>302.976</v>
+      </c>
+      <c r="D196" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>220000</v>
       </c>
       <c r="B197" s="1">
         <v>313061</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="3">
+        <f t="shared" si="3"/>
+        <v>313.06099999999998</v>
+      </c>
+      <c r="D197" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>230000</v>
       </c>
       <c r="B198" s="1">
         <v>315665</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="3">
+        <f t="shared" si="3"/>
+        <v>315.66500000000002</v>
+      </c>
+      <c r="D198" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>240000</v>
       </c>
       <c r="B199" s="1">
         <v>319061</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="3">
+        <f t="shared" si="3"/>
+        <v>319.06099999999998</v>
+      </c>
+      <c r="D199" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>250000</v>
       </c>
       <c r="B200" s="1">
         <v>327737</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="3">
+        <f t="shared" si="3"/>
+        <v>327.73700000000002</v>
+      </c>
+      <c r="D200" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>260000</v>
       </c>
       <c r="B201" s="1">
         <v>329916</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="3">
+        <f t="shared" si="3"/>
+        <v>329.916</v>
+      </c>
+      <c r="D201" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>270000</v>
       </c>
       <c r="B202" s="1">
         <v>350746</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="3">
+        <f t="shared" si="3"/>
+        <v>350.74599999999998</v>
+      </c>
+      <c r="D202" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>280000</v>
       </c>
       <c r="B203" s="1">
         <v>356820</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="3">
+        <f t="shared" si="3"/>
+        <v>356.82</v>
+      </c>
+      <c r="D203" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>290000</v>
       </c>
       <c r="B204" s="1">
         <v>366905</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="3">
+        <f t="shared" si="3"/>
+        <v>366.90499999999997</v>
+      </c>
+      <c r="D204" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>300000</v>
       </c>
       <c r="B205" s="1">
         <v>377730</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="3">
+        <f t="shared" si="3"/>
+        <v>377.73</v>
+      </c>
+      <c r="D205" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>310000</v>
       </c>
       <c r="B206" s="1">
         <v>390930</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="3">
+        <f t="shared" si="3"/>
+        <v>390.93</v>
+      </c>
+      <c r="D206" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>320000</v>
       </c>
       <c r="B207" s="1">
         <v>399083</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="3">
+        <f t="shared" si="3"/>
+        <v>399.08300000000003</v>
+      </c>
+      <c r="D207" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>330000</v>
       </c>
       <c r="B208" s="1">
         <v>411258</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="3">
+        <f t="shared" si="3"/>
+        <v>411.25799999999998</v>
+      </c>
+      <c r="D208" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>340000</v>
       </c>
       <c r="B209" s="1">
         <v>428996</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="3">
+        <f t="shared" si="3"/>
+        <v>428.99599999999998</v>
+      </c>
+      <c r="D209" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>350000</v>
       </c>
       <c r="B210" s="1">
         <v>458912</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="3">
+        <f t="shared" si="3"/>
+        <v>458.91199999999998</v>
+      </c>
+      <c r="D210" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>360000</v>
       </c>
       <c r="B211" s="1">
         <v>470053</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="3">
+        <f t="shared" si="3"/>
+        <v>470.053</v>
+      </c>
+      <c r="D211" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>370000</v>
       </c>
       <c r="B212" s="1">
         <v>469791</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="3">
+        <f t="shared" si="3"/>
+        <v>469.791</v>
+      </c>
+      <c r="D212" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>380000</v>
       </c>
       <c r="B213" s="1">
         <v>503491</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="3">
+        <f t="shared" si="3"/>
+        <v>503.49099999999999</v>
+      </c>
+      <c r="D213" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>390000</v>
       </c>
       <c r="B214" s="1">
         <v>480424</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="3">
+        <f t="shared" si="3"/>
+        <v>480.42399999999998</v>
+      </c>
+      <c r="D214" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>400000</v>
       </c>
       <c r="B215" s="1">
         <v>502646</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="3">
+        <f t="shared" si="3"/>
+        <v>502.64600000000002</v>
+      </c>
+      <c r="D215" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>410000</v>
       </c>
       <c r="B216" s="1">
         <v>505431</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="3">
+        <f t="shared" si="3"/>
+        <v>505.43099999999998</v>
+      </c>
+      <c r="D216" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>420000</v>
       </c>
       <c r="B217" s="1">
         <v>499941</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="3">
+        <f t="shared" si="3"/>
+        <v>499.94099999999997</v>
+      </c>
+      <c r="D217" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>430000</v>
       </c>
       <c r="B218" s="1">
         <v>505987</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="3">
+        <f t="shared" si="3"/>
+        <v>505.98700000000002</v>
+      </c>
+      <c r="D218" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>440000</v>
       </c>
       <c r="B219" s="1">
         <v>506025</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="3">
+        <f t="shared" si="3"/>
+        <v>506.02499999999998</v>
+      </c>
+      <c r="D219" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>450000</v>
       </c>
       <c r="B220" s="1">
         <v>512782</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="3">
+        <f t="shared" si="3"/>
+        <v>512.78200000000004</v>
+      </c>
+      <c r="D220" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
